--- a/medicine/Mort/Osōshiki/Osōshiki.xlsx
+++ b/medicine/Mort/Osōshiki/Osōshiki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Os%C5%8Dshiki</t>
+          <t>Osōshiki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osōshiki (お葬式?) est un film japonais réalisé par Jūzō Itami, sorti en 1984.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Os%C5%8Dshiki</t>
+          <t>Osōshiki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Shinkichi Amamiya, homme difficile à vivre, meurt subitement à l'âge de 69 ans. Il incombe à sa fille, Chizuko, et à son gendre, Wabisuke Inoue, d'organiser les funérailles dans la maison.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Os%C5%8Dshiki</t>
+          <t>Osōshiki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Osōshiki
 Titre original : お葬式
@@ -557,9 +573,9 @@
 Pays de production :  Japon
 Langue originale : japonais
 Genre : comédie
-Durée : 124 minutes[1]
+Durée : 124 minutes
 Dates de sortie :
-Japon : 17 novembre 1984[1]</t>
+Japon : 17 novembre 1984</t>
         </is>
       </c>
     </row>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Os%C5%8Dshiki</t>
+          <t>Osōshiki</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tsutomu Yamazaki : Wabisuke Inoue
 Nobuko Miyamoto : Chizuko Amamiya
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Os%C5%8Dshiki</t>
+          <t>Osōshiki</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,9 +661,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été nommé pour dix Japan Academy Prizes et en a remporté cinq : meilleur film, meilleur acteur pour Tsutomu Yamazaki (également pour son rôle dans Saraba hakobune), meilleur second rôle féminin pour Kin Sugai (également pour son rôle dans Hissatsu!), meilleur réalisateur et meilleur scénario[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été nommé pour dix Japan Academy Prizes et en a remporté cinq : meilleur film, meilleur acteur pour Tsutomu Yamazaki (également pour son rôle dans Saraba hakobune), meilleur second rôle féminin pour Kin Sugai (également pour son rôle dans Hissatsu!), meilleur réalisateur et meilleur scénario.
 </t>
         </is>
       </c>
